--- a/biology/Microbiologie/Clevelandellidae/Clevelandellidae.xlsx
+++ b/biology/Microbiologie/Clevelandellidae/Clevelandellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clevelandellidae sont une famille de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Clevelandella, dédié à l'entomologiste et protistologiste L. R. Cleveland [note 1].
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clevelandellidae sont des Heterotrichida complètement ciliées qui se rétrécissent vers le pôle antérieur (aboral). Une zone de membranelles[note 2] s'étend dans le péristome en forme d'entonnoir jusqu'au pharynx[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clevelandellidae sont des Heterotrichida complètement ciliées qui se rétrécissent vers le pôle antérieur (aboral). Une zone de membranelles[note 2] s'étend dans le péristome en forme d'entonnoir jusqu'au pharynx.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille comprend deux genres, Clevelandella et Paraclevelandia, représentés par des espèces parasites du tube digestif des cafards des bois Panesthia (en)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille comprend deux genres, Clevelandella et Paraclevelandia, représentés par des espèces parasites du tube digestif des cafards des bois Panesthia (en).
 </t>
         </is>
       </c>
@@ -604,12 +622,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 octobre 2022)[2] :
-Clevelandella Kidder, 1938[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 octobre 2022) :
+Clevelandella Kidder, 1938
 Espèce type  Clevelandia panesthiae[note 3]
-Selon The Taxonomicon  (21 janvier 2023)[4] :
+Selon The Taxonomicon  (21 janvier 2023) :
 Clevelandella Kidder, 1938
 Metaclevelandella Uttangi &amp; Desai, 1963
 Paraclevelandia Kidder, 1937</t>
@@ -640,10 +660,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La famille des Clevelandellidae a été créée en 1938 par le protozoologiste américain George Wallace Kidder (d) (1902-1996)[5].
-Le nom du genre type a oscillé entre Clevelandella et Clevelandia[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La famille des Clevelandellidae a été créée en 1938 par le protozoologiste américain George Wallace Kidder (d) (1902-1996).
+Le nom du genre type a oscillé entre Clevelandella et Clevelandia :
 Clevelandella est un nom de substitution du problématique Clevelandia. Homonyme senior (de seulement seize jours !) de Clevelandella Resser, 1938, nom d'un genre de trilobites fossiles.
 Clevelandia Kidder, 1937 est un homonyme du genre de poissons Clevelandia Eigenmann &amp; Eigenmann, 1888 et un synonyme objectif de Clevelandella Kidder, 1938.</t>
         </is>
